--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema4d-Cd72.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema4d-Cd72.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6040246666666667</v>
+        <v>0.4841736666666667</v>
       </c>
       <c r="H2">
-        <v>1.812074</v>
+        <v>1.452521</v>
       </c>
       <c r="I2">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="J2">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.021690666666667</v>
+        <v>2.808016</v>
       </c>
       <c r="N2">
-        <v>6.065072000000001</v>
+        <v>8.424047999999999</v>
       </c>
       <c r="O2">
-        <v>0.06218612081933903</v>
+        <v>0.02933065711877975</v>
       </c>
       <c r="P2">
-        <v>0.06218612081933902</v>
+        <v>0.02933065711877976</v>
       </c>
       <c r="Q2">
-        <v>1.221151031036444</v>
+        <v>1.359567402778667</v>
       </c>
       <c r="R2">
-        <v>10.990359279328</v>
+        <v>12.236106625008</v>
       </c>
       <c r="S2">
-        <v>0.0004599073667725066</v>
+        <v>9.804215616830952E-05</v>
       </c>
       <c r="T2">
-        <v>0.0004599073667725065</v>
+        <v>9.804215616830953E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6040246666666667</v>
+        <v>0.4841736666666667</v>
       </c>
       <c r="H3">
-        <v>1.812074</v>
+        <v>1.452521</v>
       </c>
       <c r="I3">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="J3">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>15.523056</v>
       </c>
       <c r="O3">
-        <v>0.1591602928871027</v>
+        <v>0.05404782035567898</v>
       </c>
       <c r="P3">
-        <v>0.1591602928871027</v>
+        <v>0.05404782035567899</v>
       </c>
       <c r="Q3">
-        <v>3.125436242016</v>
+        <v>2.505284980464</v>
       </c>
       <c r="R3">
-        <v>28.128926178144</v>
+        <v>22.547564824176</v>
       </c>
       <c r="S3">
-        <v>0.001177095310529233</v>
+        <v>0.0001806630114834833</v>
       </c>
       <c r="T3">
-        <v>0.001177095310529233</v>
+        <v>0.0001806630114834833</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6040246666666667</v>
+        <v>0.4841736666666667</v>
       </c>
       <c r="H4">
-        <v>1.812074</v>
+        <v>1.452521</v>
       </c>
       <c r="I4">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="J4">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.98970166666667</v>
+        <v>50.87875466666667</v>
       </c>
       <c r="N4">
-        <v>32.969105</v>
+        <v>152.636264</v>
       </c>
       <c r="O4">
-        <v>0.3380373302799166</v>
+        <v>0.5314454432448089</v>
       </c>
       <c r="P4">
-        <v>0.3380373302799166</v>
+        <v>0.531445443244809</v>
       </c>
       <c r="Q4">
-        <v>6.638050885974445</v>
+        <v>24.63415320239378</v>
       </c>
       <c r="R4">
-        <v>59.74245797376999</v>
+        <v>221.707378821544</v>
       </c>
       <c r="S4">
-        <v>0.002500008947197375</v>
+        <v>0.001776436747753019</v>
       </c>
       <c r="T4">
-        <v>0.002500008947197375</v>
+        <v>0.001776436747753019</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.6040246666666667</v>
+        <v>0.4841736666666667</v>
       </c>
       <c r="H5">
-        <v>1.812074</v>
+        <v>1.452521</v>
       </c>
       <c r="I5">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="J5">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.172299</v>
+        <v>0.7109426666666666</v>
       </c>
       <c r="N5">
-        <v>3.516897</v>
+        <v>2.132828</v>
       </c>
       <c r="O5">
-        <v>0.03605928862034465</v>
+        <v>0.007426031613463359</v>
       </c>
       <c r="P5">
-        <v>0.03605928862034465</v>
+        <v>0.00742603161346336</v>
       </c>
       <c r="Q5">
-        <v>0.7080975127086666</v>
+        <v>0.3442197177097778</v>
       </c>
       <c r="R5">
-        <v>6.372877614378</v>
+        <v>3.097977459388</v>
       </c>
       <c r="S5">
-        <v>0.0002666822155582206</v>
+        <v>2.482263347219095E-05</v>
       </c>
       <c r="T5">
-        <v>0.0002666822155582205</v>
+        <v>2.482263347219096E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.6040246666666667</v>
+        <v>0.4841736666666667</v>
       </c>
       <c r="H6">
-        <v>1.812074</v>
+        <v>1.452521</v>
       </c>
       <c r="I6">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="J6">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.15227633333333</v>
+        <v>36.16448733333333</v>
       </c>
       <c r="N6">
-        <v>39.45682899999999</v>
+        <v>108.493462</v>
       </c>
       <c r="O6">
-        <v>0.4045569673932972</v>
+        <v>0.3777500476672688</v>
       </c>
       <c r="P6">
-        <v>0.4045569673932971</v>
+        <v>0.3777500476672689</v>
       </c>
       <c r="Q6">
-        <v>7.944299328149554</v>
+        <v>17.50989243530022</v>
       </c>
       <c r="R6">
-        <v>71.49869395334598</v>
+        <v>157.589031917702</v>
       </c>
       <c r="S6">
-        <v>0.002991965524330638</v>
+        <v>0.001262686649535301</v>
       </c>
       <c r="T6">
-        <v>0.002991965524330637</v>
+        <v>0.001262686649535301</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3.371388</v>
       </c>
       <c r="I7">
-        <v>0.0137597235174641</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="J7">
-        <v>0.0137597235174641</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.021690666666667</v>
+        <v>2.808016</v>
       </c>
       <c r="N7">
-        <v>6.065072000000001</v>
+        <v>8.424047999999999</v>
       </c>
       <c r="O7">
-        <v>0.06218612081933903</v>
+        <v>0.02933065711877975</v>
       </c>
       <c r="P7">
-        <v>0.06218612081933902</v>
+        <v>0.02933065711877976</v>
       </c>
       <c r="Q7">
-        <v>2.271967884437334</v>
+        <v>3.155637148736</v>
       </c>
       <c r="R7">
-        <v>20.44771095993601</v>
+        <v>28.400734338624</v>
       </c>
       <c r="S7">
-        <v>0.0008556638290977232</v>
+        <v>0.0002275617005192798</v>
       </c>
       <c r="T7">
-        <v>0.0008556638290977231</v>
+        <v>0.0002275617005192798</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>3.371388</v>
       </c>
       <c r="I8">
-        <v>0.0137597235174641</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="J8">
-        <v>0.0137597235174641</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>15.523056</v>
       </c>
       <c r="O8">
-        <v>0.1591602928871027</v>
+        <v>0.05404782035567898</v>
       </c>
       <c r="P8">
-        <v>0.1591602928871027</v>
+        <v>0.05404782035567899</v>
       </c>
       <c r="Q8">
         <v>5.814916080192001</v>
@@ -948,10 +948,10 @@
         <v>52.33424472172801</v>
       </c>
       <c r="S8">
-        <v>0.002190001625085141</v>
+        <v>0.0004193296406449736</v>
       </c>
       <c r="T8">
-        <v>0.002190001625085141</v>
+        <v>0.0004193296406449737</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>3.371388</v>
       </c>
       <c r="I9">
-        <v>0.0137597235174641</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="J9">
-        <v>0.0137597235174641</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.98970166666667</v>
+        <v>50.87875466666667</v>
       </c>
       <c r="N9">
-        <v>32.969105</v>
+        <v>152.636264</v>
       </c>
       <c r="O9">
-        <v>0.3380373302799166</v>
+        <v>0.5314454432448089</v>
       </c>
       <c r="P9">
-        <v>0.3380373302799166</v>
+        <v>0.531445443244809</v>
       </c>
       <c r="Q9">
-        <v>12.35018277419334</v>
+        <v>57.17734097938136</v>
       </c>
       <c r="R9">
-        <v>111.15164496774</v>
+        <v>514.5960688144321</v>
       </c>
       <c r="S9">
-        <v>0.004651300203233348</v>
+        <v>0.004123215798004679</v>
       </c>
       <c r="T9">
-        <v>0.004651300203233347</v>
+        <v>0.00412321579800468</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>3.371388</v>
       </c>
       <c r="I10">
-        <v>0.0137597235174641</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="J10">
-        <v>0.0137597235174641</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.172299</v>
+        <v>0.7109426666666666</v>
       </c>
       <c r="N10">
-        <v>3.516897</v>
+        <v>2.132828</v>
       </c>
       <c r="O10">
-        <v>0.03605928862034465</v>
+        <v>0.007426031613463359</v>
       </c>
       <c r="P10">
-        <v>0.03605928862034465</v>
+        <v>0.00742603161346336</v>
       </c>
       <c r="Q10">
-        <v>1.317424927004</v>
+        <v>0.7989545250293334</v>
       </c>
       <c r="R10">
-        <v>11.856824343036</v>
+        <v>7.190590725264001</v>
       </c>
       <c r="S10">
-        <v>0.0004961658416523819</v>
+        <v>5.761481494349681E-05</v>
       </c>
       <c r="T10">
-        <v>0.0004961658416523818</v>
+        <v>5.761481494349682E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>3.371388</v>
       </c>
       <c r="I11">
-        <v>0.0137597235174641</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="J11">
-        <v>0.0137597235174641</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.15227633333333</v>
+        <v>36.16448733333333</v>
       </c>
       <c r="N11">
-        <v>39.45682899999999</v>
+        <v>108.493462</v>
       </c>
       <c r="O11">
-        <v>0.4045569673932972</v>
+        <v>0.3777500476672688</v>
       </c>
       <c r="P11">
-        <v>0.4045569673932971</v>
+        <v>0.3777500476672689</v>
       </c>
       <c r="Q11">
-        <v>14.78047553429467</v>
+        <v>40.64150620725068</v>
       </c>
       <c r="R11">
-        <v>133.024279808652</v>
+        <v>365.773555865256</v>
       </c>
       <c r="S11">
-        <v>0.005566592018395509</v>
+        <v>0.002930771133776049</v>
       </c>
       <c r="T11">
-        <v>0.005566592018395507</v>
+        <v>0.00293077113377605</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>28.13359466666667</v>
+        <v>85.95243833333332</v>
       </c>
       <c r="H12">
-        <v>84.400784</v>
+        <v>257.857315</v>
       </c>
       <c r="I12">
-        <v>0.3444668642402499</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="J12">
-        <v>0.3444668642402499</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.021690666666667</v>
+        <v>2.808016</v>
       </c>
       <c r="N12">
-        <v>6.065072000000001</v>
+        <v>8.424047999999999</v>
       </c>
       <c r="O12">
-        <v>0.06218612081933903</v>
+        <v>0.02933065711877975</v>
       </c>
       <c r="P12">
-        <v>0.06218612081933902</v>
+        <v>0.02933065711877976</v>
       </c>
       <c r="Q12">
-        <v>56.87742575738312</v>
+        <v>241.3558220790133</v>
       </c>
       <c r="R12">
-        <v>511.8968318164481</v>
+        <v>2172.20239871112</v>
       </c>
       <c r="S12">
-        <v>0.02142105803790304</v>
+        <v>0.01740483417890067</v>
       </c>
       <c r="T12">
-        <v>0.02142105803790303</v>
+        <v>0.01740483417890067</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>28.13359466666667</v>
+        <v>85.95243833333332</v>
       </c>
       <c r="H13">
-        <v>84.400784</v>
+        <v>257.857315</v>
       </c>
       <c r="I13">
-        <v>0.3444668642402499</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="J13">
-        <v>0.3444668642402499</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>15.523056</v>
       </c>
       <c r="O13">
-        <v>0.1591602928871027</v>
+        <v>0.05404782035567898</v>
       </c>
       <c r="P13">
-        <v>0.1591602928871027</v>
+        <v>0.05404782035567899</v>
       </c>
       <c r="Q13">
-        <v>145.573121830656</v>
+        <v>444.7481711949599</v>
       </c>
       <c r="R13">
-        <v>1310.158096475904</v>
+        <v>4002.73354075464</v>
       </c>
       <c r="S13">
-        <v>0.05482544700238001</v>
+        <v>0.03207201758938091</v>
       </c>
       <c r="T13">
-        <v>0.05482544700238001</v>
+        <v>0.03207201758938092</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>28.13359466666667</v>
+        <v>85.95243833333332</v>
       </c>
       <c r="H14">
-        <v>84.400784</v>
+        <v>257.857315</v>
       </c>
       <c r="I14">
-        <v>0.3444668642402499</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="J14">
-        <v>0.3444668642402499</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.98970166666667</v>
+        <v>50.87875466666667</v>
       </c>
       <c r="N14">
-        <v>32.969105</v>
+        <v>152.636264</v>
       </c>
       <c r="O14">
-        <v>0.3380373302799166</v>
+        <v>0.5314454432448089</v>
       </c>
       <c r="P14">
-        <v>0.3380373302799166</v>
+        <v>0.531445443244809</v>
       </c>
       <c r="Q14">
-        <v>309.1798121975911</v>
+        <v>4373.153022963462</v>
       </c>
       <c r="R14">
-        <v>2782.61830977832</v>
+        <v>39358.37720667116</v>
       </c>
       <c r="S14">
-        <v>0.1164426591576686</v>
+        <v>0.3153601290741584</v>
       </c>
       <c r="T14">
-        <v>0.1164426591576685</v>
+        <v>0.3153601290741584</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>28.13359466666667</v>
+        <v>85.95243833333332</v>
       </c>
       <c r="H15">
-        <v>84.400784</v>
+        <v>257.857315</v>
       </c>
       <c r="I15">
-        <v>0.3444668642402499</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="J15">
-        <v>0.3444668642402499</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.172299</v>
+        <v>0.7109426666666666</v>
       </c>
       <c r="N15">
-        <v>3.516897</v>
+        <v>2.132828</v>
       </c>
       <c r="O15">
-        <v>0.03605928862034465</v>
+        <v>0.007426031613463359</v>
       </c>
       <c r="P15">
-        <v>0.03605928862034465</v>
+        <v>0.00742603161346336</v>
       </c>
       <c r="Q15">
-        <v>32.98098489413866</v>
+        <v>61.10725571520221</v>
       </c>
       <c r="R15">
-        <v>296.828864047248</v>
+        <v>549.9653014368199</v>
       </c>
       <c r="S15">
-        <v>0.01242123007778425</v>
+        <v>0.004406612791393918</v>
       </c>
       <c r="T15">
-        <v>0.01242123007778425</v>
+        <v>0.004406612791393919</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>28.13359466666667</v>
+        <v>85.95243833333332</v>
       </c>
       <c r="H16">
-        <v>84.400784</v>
+        <v>257.857315</v>
       </c>
       <c r="I16">
-        <v>0.3444668642402499</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="J16">
-        <v>0.3444668642402499</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.15227633333333</v>
+        <v>36.16448733333333</v>
       </c>
       <c r="N16">
-        <v>39.45682899999999</v>
+        <v>108.493462</v>
       </c>
       <c r="O16">
-        <v>0.4045569673932972</v>
+        <v>0.3777500476672688</v>
       </c>
       <c r="P16">
-        <v>0.4045569673932971</v>
+        <v>0.3777500476672689</v>
       </c>
       <c r="Q16">
-        <v>370.0208113059928</v>
+        <v>3108.425867374947</v>
       </c>
       <c r="R16">
-        <v>3330.187301753936</v>
+        <v>27975.83280637452</v>
       </c>
       <c r="S16">
-        <v>0.1393564699645141</v>
+        <v>0.2241571647745669</v>
       </c>
       <c r="T16">
-        <v>0.1393564699645141</v>
+        <v>0.224157164774567</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.288857333333333</v>
+        <v>1.941884333333334</v>
       </c>
       <c r="H17">
-        <v>6.866572</v>
+        <v>5.825653000000001</v>
       </c>
       <c r="I17">
-        <v>0.0280246985018516</v>
+        <v>0.01340643335413687</v>
       </c>
       <c r="J17">
-        <v>0.02802469850185161</v>
+        <v>0.01340643335413687</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.021690666666667</v>
+        <v>2.808016</v>
       </c>
       <c r="N17">
-        <v>6.065072000000001</v>
+        <v>8.424047999999999</v>
       </c>
       <c r="O17">
-        <v>0.06218612081933903</v>
+        <v>0.02933065711877975</v>
       </c>
       <c r="P17">
-        <v>0.06218612081933902</v>
+        <v>0.02933065711877976</v>
       </c>
       <c r="Q17">
-        <v>4.627361508131555</v>
+        <v>5.452842278149333</v>
       </c>
       <c r="R17">
-        <v>41.646253573184</v>
+        <v>49.075580503344</v>
       </c>
       <c r="S17">
-        <v>0.001742747286961693</v>
+        <v>0.0003932194998959608</v>
       </c>
       <c r="T17">
-        <v>0.001742747286961693</v>
+        <v>0.0003932194998959609</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.288857333333333</v>
+        <v>1.941884333333334</v>
       </c>
       <c r="H18">
-        <v>6.866572</v>
+        <v>5.825653000000001</v>
       </c>
       <c r="I18">
-        <v>0.0280246985018516</v>
+        <v>0.01340643335413687</v>
       </c>
       <c r="J18">
-        <v>0.02802469850185161</v>
+        <v>0.01340643335413687</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>15.523056</v>
       </c>
       <c r="O18">
-        <v>0.1591602928871027</v>
+        <v>0.05404782035567898</v>
       </c>
       <c r="P18">
-        <v>0.1591602928871027</v>
+        <v>0.05404782035567899</v>
       </c>
       <c r="Q18">
-        <v>11.843353520448</v>
+        <v>10.047993083952</v>
       </c>
       <c r="R18">
-        <v>106.590181684032</v>
+        <v>90.43193775556801</v>
       </c>
       <c r="S18">
-        <v>0.004460419221627448</v>
+        <v>0.0007245885015347722</v>
       </c>
       <c r="T18">
-        <v>0.004460419221627448</v>
+        <v>0.0007245885015347723</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.288857333333333</v>
+        <v>1.941884333333334</v>
       </c>
       <c r="H19">
-        <v>6.866572</v>
+        <v>5.825653000000001</v>
       </c>
       <c r="I19">
-        <v>0.0280246985018516</v>
+        <v>0.01340643335413687</v>
       </c>
       <c r="J19">
-        <v>0.02802469850185161</v>
+        <v>0.01340643335413687</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.98970166666667</v>
+        <v>50.87875466666667</v>
       </c>
       <c r="N19">
-        <v>32.969105</v>
+        <v>152.636264</v>
       </c>
       <c r="O19">
-        <v>0.3380373302799166</v>
+        <v>0.5314454432448089</v>
       </c>
       <c r="P19">
-        <v>0.3380373302799166</v>
+        <v>0.531445443244809</v>
       </c>
       <c r="Q19">
-        <v>25.15385925089555</v>
+        <v>98.80065658671025</v>
       </c>
       <c r="R19">
-        <v>226.38473325806</v>
+        <v>889.2059092803922</v>
       </c>
       <c r="S19">
-        <v>0.009473394263465494</v>
+        <v>0.007124787916221258</v>
       </c>
       <c r="T19">
-        <v>0.009473394263465494</v>
+        <v>0.00712478791622126</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.288857333333333</v>
+        <v>1.941884333333334</v>
       </c>
       <c r="H20">
-        <v>6.866572</v>
+        <v>5.825653000000001</v>
       </c>
       <c r="I20">
-        <v>0.0280246985018516</v>
+        <v>0.01340643335413687</v>
       </c>
       <c r="J20">
-        <v>0.02802469850185161</v>
+        <v>0.01340643335413687</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.172299</v>
+        <v>0.7109426666666666</v>
       </c>
       <c r="N20">
-        <v>3.516897</v>
+        <v>2.132828</v>
       </c>
       <c r="O20">
-        <v>0.03605928862034465</v>
+        <v>0.007426031613463359</v>
       </c>
       <c r="P20">
-        <v>0.03605928862034465</v>
+        <v>0.00742603161346336</v>
       </c>
       <c r="Q20">
-        <v>2.683225163009333</v>
+        <v>1.380568426298222</v>
       </c>
       <c r="R20">
-        <v>24.149026467084</v>
+        <v>12.425115836684</v>
       </c>
       <c r="S20">
-        <v>0.001010550691776407</v>
+        <v>9.955659791160999E-05</v>
       </c>
       <c r="T20">
-        <v>0.001010550691776407</v>
+        <v>9.955659791161001E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.288857333333333</v>
+        <v>1.941884333333334</v>
       </c>
       <c r="H21">
-        <v>6.866572</v>
+        <v>5.825653000000001</v>
       </c>
       <c r="I21">
-        <v>0.0280246985018516</v>
+        <v>0.01340643335413687</v>
       </c>
       <c r="J21">
-        <v>0.02802469850185161</v>
+        <v>0.01340643335413687</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.15227633333333</v>
+        <v>36.16448733333333</v>
       </c>
       <c r="N21">
-        <v>39.45682899999999</v>
+        <v>108.493462</v>
       </c>
       <c r="O21">
-        <v>0.4045569673932972</v>
+        <v>0.3777500476672688</v>
       </c>
       <c r="P21">
-        <v>0.4045569673932971</v>
+        <v>0.3777500476672689</v>
       </c>
       <c r="Q21">
-        <v>30.10368413557644</v>
+        <v>70.22725137563178</v>
       </c>
       <c r="R21">
-        <v>270.9331572201879</v>
+        <v>632.045262380686</v>
       </c>
       <c r="S21">
-        <v>0.01133758703802056</v>
+        <v>0.005064280838573265</v>
       </c>
       <c r="T21">
-        <v>0.01133758703802056</v>
+        <v>0.005064280838573266</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>49.52258933333334</v>
+        <v>55.34490766666666</v>
       </c>
       <c r="H22">
-        <v>148.567768</v>
+        <v>166.034723</v>
       </c>
       <c r="I22">
-        <v>0.6063530543760464</v>
+        <v>0.3820916639511615</v>
       </c>
       <c r="J22">
-        <v>0.6063530543760464</v>
+        <v>0.3820916639511614</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.021690666666667</v>
+        <v>2.808016</v>
       </c>
       <c r="N22">
-        <v>6.065072000000001</v>
+        <v>8.424047999999999</v>
       </c>
       <c r="O22">
-        <v>0.06218612081933903</v>
+        <v>0.02933065711877975</v>
       </c>
       <c r="P22">
-        <v>0.06218612081933902</v>
+        <v>0.02933065711877976</v>
       </c>
       <c r="Q22">
-        <v>100.1193566443662</v>
+        <v>155.4093862465226</v>
       </c>
       <c r="R22">
-        <v>901.0742097992961</v>
+        <v>1398.684476218704</v>
       </c>
       <c r="S22">
-        <v>0.03770674429860407</v>
+        <v>0.01120699958329554</v>
       </c>
       <c r="T22">
-        <v>0.03770674429860407</v>
+        <v>0.01120699958329553</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>49.52258933333334</v>
+        <v>55.34490766666666</v>
       </c>
       <c r="H23">
-        <v>148.567768</v>
+        <v>166.034723</v>
       </c>
       <c r="I23">
-        <v>0.6063530543760464</v>
+        <v>0.3820916639511615</v>
       </c>
       <c r="J23">
-        <v>0.6063530543760464</v>
+        <v>0.3820916639511614</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>15.523056</v>
       </c>
       <c r="O23">
-        <v>0.1591602928871027</v>
+        <v>0.05404782035567898</v>
       </c>
       <c r="P23">
-        <v>0.1591602928871027</v>
+        <v>0.05404782035567899</v>
       </c>
       <c r="Q23">
-        <v>256.247309162112</v>
+        <v>286.374033674832</v>
       </c>
       <c r="R23">
-        <v>2306.225782459008</v>
+        <v>2577.366303073488</v>
       </c>
       <c r="S23">
-        <v>0.09650732972748083</v>
+        <v>0.02065122161263484</v>
       </c>
       <c r="T23">
-        <v>0.09650732972748081</v>
+        <v>0.02065122161263484</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>49.52258933333334</v>
+        <v>55.34490766666666</v>
       </c>
       <c r="H24">
-        <v>148.567768</v>
+        <v>166.034723</v>
       </c>
       <c r="I24">
-        <v>0.6063530543760464</v>
+        <v>0.3820916639511615</v>
       </c>
       <c r="J24">
-        <v>0.6063530543760464</v>
+        <v>0.3820916639511614</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.98970166666667</v>
+        <v>50.87875466666667</v>
       </c>
       <c r="N24">
-        <v>32.969105</v>
+        <v>152.636264</v>
       </c>
       <c r="O24">
-        <v>0.3380373302799166</v>
+        <v>0.5314454432448089</v>
       </c>
       <c r="P24">
-        <v>0.3380373302799166</v>
+        <v>0.531445443244809</v>
       </c>
       <c r="Q24">
-        <v>544.2384825341823</v>
+        <v>2815.879979221653</v>
       </c>
       <c r="R24">
-        <v>4898.146342807639</v>
+        <v>25342.91981299487</v>
       </c>
       <c r="S24">
-        <v>0.2049699677083518</v>
+        <v>0.2030608737086716</v>
       </c>
       <c r="T24">
-        <v>0.2049699677083518</v>
+        <v>0.2030608737086716</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>49.52258933333334</v>
+        <v>55.34490766666666</v>
       </c>
       <c r="H25">
-        <v>148.567768</v>
+        <v>166.034723</v>
       </c>
       <c r="I25">
-        <v>0.6063530543760464</v>
+        <v>0.3820916639511615</v>
       </c>
       <c r="J25">
-        <v>0.6063530543760464</v>
+        <v>0.3820916639511614</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.172299</v>
+        <v>0.7109426666666666</v>
       </c>
       <c r="N25">
-        <v>3.516897</v>
+        <v>2.132828</v>
       </c>
       <c r="O25">
-        <v>0.03605928862034465</v>
+        <v>0.007426031613463359</v>
       </c>
       <c r="P25">
-        <v>0.03605928862034465</v>
+        <v>0.00742603161346336</v>
       </c>
       <c r="Q25">
-        <v>58.05528195287734</v>
+        <v>39.34705624296044</v>
       </c>
       <c r="R25">
-        <v>522.497537575896</v>
+        <v>354.123506186644</v>
       </c>
       <c r="S25">
-        <v>0.02186465979357339</v>
+        <v>0.002837424775742143</v>
       </c>
       <c r="T25">
-        <v>0.02186465979357339</v>
+        <v>0.002837424775742143</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>49.52258933333334</v>
+        <v>55.34490766666666</v>
       </c>
       <c r="H26">
-        <v>148.567768</v>
+        <v>166.034723</v>
       </c>
       <c r="I26">
-        <v>0.6063530543760464</v>
+        <v>0.3820916639511615</v>
       </c>
       <c r="J26">
-        <v>0.6063530543760464</v>
+        <v>0.3820916639511614</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.15227633333333</v>
+        <v>36.16448733333333</v>
       </c>
       <c r="N26">
-        <v>39.45682899999999</v>
+        <v>108.493462</v>
       </c>
       <c r="O26">
-        <v>0.4045569673932972</v>
+        <v>0.3777500476672688</v>
       </c>
       <c r="P26">
-        <v>0.4045569673932971</v>
+        <v>0.3777500476672689</v>
       </c>
       <c r="Q26">
-        <v>651.3347796541857</v>
+        <v>2001.52021227567</v>
       </c>
       <c r="R26">
-        <v>5862.013016887671</v>
+        <v>18013.68191048102</v>
       </c>
       <c r="S26">
-        <v>0.2453043528480363</v>
+        <v>0.1443351442708173</v>
       </c>
       <c r="T26">
-        <v>0.2453043528480363</v>
+        <v>0.1443351442708173</v>
       </c>
     </row>
   </sheetData>
